--- a/_sprints/sprint2/burndown/Sprint 2 Burndown Chart Version 0.xlsx
+++ b/_sprints/sprint2/burndown/Sprint 2 Burndown Chart Version 0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Grad School\Emerging Processes\adventra-app\_sprints\sprint2\burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066B45B3-8545-4C67-BD9A-62F8FF8646BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32661173-481B-4C01-B6B4-05E1D66E8ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{5E7660C9-43B9-406B-90F3-620F8B00C16F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E7660C9-43B9-406B-90F3-620F8B00C16F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,8 +494,7 @@
         <c:axId val="1203711967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45739"/>
-          <c:min val="45719"/>
+          <c:min val="45740"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1626,7 +1625,7 @@
   <dimension ref="C6:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/_sprints/sprint2/burndown/Sprint 2 Burndown Chart Version 0.xlsx
+++ b/_sprints/sprint2/burndown/Sprint 2 Burndown Chart Version 0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Grad School\Emerging Processes\adventra-app\_sprints\sprint2\burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32661173-481B-4C01-B6B4-05E1D66E8ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8253E38-DFF5-42CE-9FB5-89508635F783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E7660C9-43B9-406B-90F3-620F8B00C16F}"/>
   </bookViews>
@@ -291,6 +291,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -406,64 +409,64 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.100000000000001</c:v>
+                  <c:v>39.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.2</c:v>
+                  <c:v>37.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.428571428571429</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.4</c:v>
+                  <c:v>33.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.6</c:v>
+                  <c:v>29.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.7</c:v>
+                  <c:v>27.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.8</c:v>
+                  <c:v>25.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.9</c:v>
+                  <c:v>23.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.1</c:v>
+                  <c:v>18.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.1999999999999993</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>14.7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4</c:v>
+                  <c:v>12.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.5999999999999996</c:v>
+                  <c:v>8.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.6999999999999993</c:v>
+                  <c:v>6.2999999999999972</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8000000000000007</c:v>
+                  <c:v>4.2000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.89999999999999858</c:v>
+                  <c:v>2.1000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -1625,7 +1628,7 @@
   <dimension ref="C6:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,9 +1658,12 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
+      <c r="E7">
+        <v>42</v>
+      </c>
       <c r="F7" s="3">
-        <f>18 - (18*(D7-1)/20)</f>
-        <v>18</v>
+        <f>42 - (42*(D7-1)/20)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
@@ -1668,8 +1674,8 @@
         <v>2</v>
       </c>
       <c r="F8" s="3">
-        <f>18 - (18*(D8-1)/20)</f>
-        <v>17.100000000000001</v>
+        <f>42 - (42*(D8-1)/20)</f>
+        <v>39.9</v>
       </c>
     </row>
     <row r="9" spans="3:20" x14ac:dyDescent="0.25">
@@ -1680,8 +1686,8 @@
         <v>3</v>
       </c>
       <c r="F9" s="3">
-        <f>18 - (18*(D9-1)/20)</f>
-        <v>16.2</v>
+        <f>42 - (42*(D9-1)/20)</f>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.25">
@@ -1692,8 +1698,8 @@
         <v>4</v>
       </c>
       <c r="F10" s="3">
-        <f>18 - (18*(D10-1)/21)</f>
-        <v>15.428571428571429</v>
+        <f>42 - (42*(D10-1)/21)</f>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
@@ -1704,8 +1710,8 @@
         <v>5</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" ref="F11:F27" si="0">18 - (18*(D11-1)/20)</f>
-        <v>14.4</v>
+        <f>42 - (42*(D11-1)/20)</f>
+        <v>33.6</v>
       </c>
     </row>
     <row r="12" spans="3:20" x14ac:dyDescent="0.25">
@@ -1716,8 +1722,8 @@
         <v>6</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>13.5</v>
+        <f>42 - (42*(D12-1)/20)</f>
+        <v>31.5</v>
       </c>
     </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.25">
@@ -1728,8 +1734,8 @@
         <v>7</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>12.6</v>
+        <f>42 - (42*(D13-1)/20)</f>
+        <v>29.4</v>
       </c>
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.25">
@@ -1740,8 +1746,8 @@
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>11.7</v>
+        <f>42 - (42*(D14-1)/20)</f>
+        <v>27.3</v>
       </c>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.25">
@@ -1752,8 +1758,8 @@
         <v>9</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>10.8</v>
+        <f>42 - (42*(D15-1)/20)</f>
+        <v>25.2</v>
       </c>
       <c r="T15" t="s">
         <v>4</v>
@@ -1767,8 +1773,8 @@
         <v>10</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>9.9</v>
+        <f>42 - (42*(D16-1)/20)</f>
+        <v>23.1</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
@@ -1779,8 +1785,8 @@
         <v>11</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>42 - (42*(D17-1)/20)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
@@ -1791,8 +1797,8 @@
         <v>12</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="0"/>
-        <v>8.1</v>
+        <f>42 - (42*(D18-1)/20)</f>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
@@ -1803,8 +1809,8 @@
         <v>13</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="0"/>
-        <v>7.1999999999999993</v>
+        <f>42 - (42*(D19-1)/20)</f>
+        <v>16.8</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
@@ -1815,8 +1821,8 @@
         <v>14</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="0"/>
-        <v>6.3000000000000007</v>
+        <f>42 - (42*(D20-1)/20)</f>
+        <v>14.7</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
@@ -1827,8 +1833,8 @@
         <v>15</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="0"/>
-        <v>5.4</v>
+        <f>42 - (42*(D21-1)/20)</f>
+        <v>12.600000000000001</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
@@ -1839,8 +1845,8 @@
         <v>16</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
+        <f>42 - (42*(D22-1)/20)</f>
+        <v>10.5</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
@@ -1851,8 +1857,8 @@
         <v>17</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999996</v>
+        <f>42 - (42*(D23-1)/20)</f>
+        <v>8.3999999999999986</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
@@ -1863,8 +1869,8 @@
         <v>18</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="0"/>
-        <v>2.6999999999999993</v>
+        <f>42 - (42*(D24-1)/20)</f>
+        <v>6.2999999999999972</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
@@ -1875,8 +1881,8 @@
         <v>19</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="0"/>
-        <v>1.8000000000000007</v>
+        <f>42 - (42*(D25-1)/20)</f>
+        <v>4.2000000000000028</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
@@ -1887,8 +1893,8 @@
         <v>20</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="0"/>
-        <v>0.89999999999999858</v>
+        <f>42 - (42*(D26-1)/20)</f>
+        <v>2.1000000000000014</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
@@ -1899,7 +1905,7 @@
         <v>21</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="0"/>
+        <f>42 - (42*(D27-1)/20)</f>
         <v>0</v>
       </c>
     </row>
